--- a/codejava/leetCodeDetails.xlsx
+++ b/codejava/leetCodeDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\myrepo\codejava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D262E4B-0F4F-477A-BB23-FDBE4B40EF63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647D5AF-7771-4DDA-BAF4-CDC87F2126E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{1887F4E3-E8CC-4DDB-94DB-AB2A1D003E15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>LeetCode-Problems</t>
   </si>
@@ -72,17 +72,20 @@
     <t>https://leetcode.com/problems/largest-number/description/</t>
   </si>
   <si>
-    <t>Tree</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Depth-First Search</t>
+  </si>
+  <si>
+    <t>Matrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +109,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,32 +134,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,45 +489,45 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -510,13 +535,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -524,13 +549,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -538,13 +563,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -552,45 +577,51 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>6</v>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -598,7 +629,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -606,32 +637,32 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
     </row>
@@ -639,7 +670,17 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{57C38546-CBAF-44CD-B79C-0FF755645902}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{7968CAB6-7764-4AD1-A2DF-96AE466D86AB}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{4A239D58-3372-4F78-9905-F3B2690AD007}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{E5391075-E83E-4FE2-9C9A-AD7FE8F44E9C}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{CB5F8C29-C713-40CF-B401-B67321C43FA8}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{D1B8941C-C1BD-4AD9-9E1E-0D0B673E67B5}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{723DF66D-5251-47A1-A9C7-99C5607B49FA}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{1889614F-4A48-45C7-BFC1-8ECBA2DBEA94}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/codejava/leetCodeDetails.xlsx
+++ b/codejava/leetCodeDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\myrepo\codejava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647D5AF-7771-4DDA-BAF4-CDC87F2126E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11FB52A-916C-4C8B-A4DC-81F910B6A3B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{1887F4E3-E8CC-4DDB-94DB-AB2A1D003E15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>LeetCode-Problems</t>
   </si>
@@ -60,18 +60,9 @@
     <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/path-sum-ii/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/reshape-the-matrix/description/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/group-anagrams/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/largest-number/description/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/</t>
   </si>
   <si>
@@ -79,13 +70,76 @@
   </si>
   <si>
     <t>Matrix</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>https://github.com/reach-kraj</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/strong-password-checker/</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-nice-substring/</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-duplicate-substring/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/defanging-an-ip-address/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Dynamic Programing</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-arrays/</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/transpose-matrix/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-list/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-complete-tree-nodes/solutions/2815747/java-solution-easy-4-liner-code/</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/happy-number/solutions/3767573/easy-java-solution-two-pointers-floyd-s-tortoise-and-hare-detailed-explanation/</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/solutions/4318377/remove-duplicates-from-sorted-linked-list-in-java-beats-100/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +171,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,12 +211,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,14 +261,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -486,71 +600,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE72DCC-C502-4D2C-9F4F-93F4FAF74287}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -558,129 +668,319 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>15</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{57C38546-CBAF-44CD-B79C-0FF755645902}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{7968CAB6-7764-4AD1-A2DF-96AE466D86AB}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{4A239D58-3372-4F78-9905-F3B2690AD007}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{E5391075-E83E-4FE2-9C9A-AD7FE8F44E9C}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{CB5F8C29-C713-40CF-B401-B67321C43FA8}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{D1B8941C-C1BD-4AD9-9E1E-0D0B673E67B5}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{723DF66D-5251-47A1-A9C7-99C5607B49FA}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{1889614F-4A48-45C7-BFC1-8ECBA2DBEA94}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{57C38546-CBAF-44CD-B79C-0FF755645902}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{7968CAB6-7764-4AD1-A2DF-96AE466D86AB}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{4A239D58-3372-4F78-9905-F3B2690AD007}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{E5391075-E83E-4FE2-9C9A-AD7FE8F44E9C}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{CB5F8C29-C713-40CF-B401-B67321C43FA8}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{65132BA6-5A8B-4F31-8374-A713A59580A0}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{11DBA448-1401-4AD6-8F81-3B041C43E481}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{7A78762C-E8D2-484B-8CC9-A0067CD8CB72}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{AC6D635C-4753-4253-B0A8-6C5FEB686C87}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{62285847-563B-41AC-B41E-A7636BF57063}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{9EF66FB8-36AC-47F2-9972-EBF4F7EC0F8F}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{BF2D9E3C-A4EE-4578-988D-4B0C68739278}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{CF216D38-8E21-4C3A-B16C-259CBE6C3FB3}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{26A1B555-420C-4C8F-B468-09AF34222F1D}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{16C3AACF-2F59-4ED0-B2D0-DF211C8A98F2}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{3A350148-F3B9-4B78-AB34-B0B5FA8CDCCC}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{CED6D830-ABB0-4E15-BEA9-84B3A2A8C7D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
--- a/codejava/leetCodeDetails.xlsx
+++ b/codejava/leetCodeDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\myrepo\codejava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11FB52A-916C-4C8B-A4DC-81F910B6A3B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC2F95C-A2BB-4AFD-A81E-B9F162371F2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{1887F4E3-E8CC-4DDB-94DB-AB2A1D003E15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>LeetCode-Problems</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/solutions/4318377/remove-duplicates-from-sorted-linked-list-in-java-beats-100/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-binary-number-in-a-linked-list-to-integer/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
   </si>
 </sst>
 </file>
@@ -603,7 +612,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,14 +905,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,8 +1006,10 @@
     <hyperlink ref="D20" r:id="rId15" xr:uid="{16C3AACF-2F59-4ED0-B2D0-DF211C8A98F2}"/>
     <hyperlink ref="D21" r:id="rId16" xr:uid="{3A350148-F3B9-4B78-AB34-B0B5FA8CDCCC}"/>
     <hyperlink ref="D22" r:id="rId17" xr:uid="{CED6D830-ABB0-4E15-BEA9-84B3A2A8C7D7}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{26E9DF54-D608-459C-BA91-5ED1480D25DE}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{FEAB1305-05EC-4100-9973-812C9F44C213}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>